--- a/data/trans_dic/P34B03_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P34B03_R-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.153009353884401</v>
+        <v>0.1451166439318994</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2091562453560616</v>
+        <v>0.2134452440448014</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1662036785972738</v>
+        <v>0.1667223364323203</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08778407747759194</v>
+        <v>0.08446703908128382</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09921089350901116</v>
+        <v>0.09494438555898033</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08384635630425406</v>
+        <v>0.08081735189804232</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1269350117809484</v>
+        <v>0.1271767068564613</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1660326447799271</v>
+        <v>0.1642374693410011</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1321168925691129</v>
+        <v>0.1330299634909896</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2475747620782582</v>
+        <v>0.2421396205379578</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3153866490436956</v>
+        <v>0.3183455707501448</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2817629381672813</v>
+        <v>0.2688020721685074</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1683888345414243</v>
+        <v>0.1648089725911274</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.183489502614849</v>
+        <v>0.1809836808275505</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1432871977227229</v>
+        <v>0.1427545474488656</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1893119502122714</v>
+        <v>0.1916151062809126</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.234242816777365</v>
+        <v>0.2340445960979072</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1956250258152571</v>
+        <v>0.1985676067233155</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.09862818238380104</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.04662142845564674</v>
+        <v>0.04662142845564673</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.1245530083372736</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1558326136195563</v>
+        <v>0.1568260477213942</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1492358207898894</v>
+        <v>0.1470358215654534</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1229943099414238</v>
+        <v>0.1211049344888532</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04084351800374597</v>
+        <v>0.03969602560455295</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07425055944357066</v>
+        <v>0.07475891834376926</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03233180978097756</v>
+        <v>0.03063686946573422</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.10297372547515</v>
+        <v>0.1029408326265582</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1179332720574848</v>
+        <v>0.1196521225290701</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07875319656427823</v>
+        <v>0.07965881085698273</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2322476889383205</v>
+        <v>0.2322955974896574</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2196001886512687</v>
+        <v>0.2159393478913274</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2132692426663791</v>
+        <v>0.2095579779901384</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08375329148875728</v>
+        <v>0.08226837261999145</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1273717295694585</v>
+        <v>0.1249204619241495</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06573098890584719</v>
+        <v>0.06711844303776458</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1491280550868734</v>
+        <v>0.1470546084773737</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1629960898426258</v>
+        <v>0.1624145967042683</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1294497946221247</v>
+        <v>0.1277657410132832</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1006018932465423</v>
+        <v>0.1022024665227087</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1503152604125832</v>
+        <v>0.153019879949352</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1522900695501719</v>
+        <v>0.1511901949780223</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0286137353947303</v>
+        <v>0.02913194321820002</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08197915501449959</v>
+        <v>0.08265758950249404</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04491204242038456</v>
+        <v>0.04429969022257913</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07144252856381493</v>
+        <v>0.0719211213141665</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1269495411462836</v>
+        <v>0.1225935208216083</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1041329739017063</v>
+        <v>0.1001339909754681</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1773851181160523</v>
+        <v>0.1766123788297262</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2360066331131822</v>
+        <v>0.2398264002613834</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2478236398097806</v>
+        <v>0.2465203497396937</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07914513480118095</v>
+        <v>0.07937868464189876</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1512090960720353</v>
+        <v>0.1506351279345211</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09656695320299381</v>
+        <v>0.09534699983407079</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1172622368167861</v>
+        <v>0.1155038094253959</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1812289309928383</v>
+        <v>0.1777583751587781</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1557500936303648</v>
+        <v>0.1558483187780943</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.1707567133309355</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1690434808965909</v>
+        <v>0.1690434808965908</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.05955890650782493</v>
@@ -991,7 +991,7 @@
         <v>0.1234268565178817</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.1476133226950701</v>
+        <v>0.14761332269507</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1184587197302378</v>
+        <v>0.1206075088190639</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1288664086067237</v>
+        <v>0.1298929823036239</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1202539058415267</v>
+        <v>0.1268565251178979</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03900509276379757</v>
+        <v>0.03887441645729894</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05326235917398377</v>
+        <v>0.05493436784605375</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09805150543458066</v>
+        <v>0.09722650112618363</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08540786668404218</v>
+        <v>0.08635075378461239</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1011688711094996</v>
+        <v>0.1002739743450828</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1183882820244749</v>
+        <v>0.1199518479482752</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2019725097894259</v>
+        <v>0.2018170394170873</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2137210444223601</v>
+        <v>0.2121841836058552</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2242018001726679</v>
+        <v>0.2337589998447887</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08901633186150602</v>
+        <v>0.09005584600481158</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1103249428403021</v>
+        <v>0.110593606432394</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1736184922186783</v>
+        <v>0.1712879884778951</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1332045448236372</v>
+        <v>0.1331034733069658</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1519409419094156</v>
+        <v>0.1514325534539599</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1825929568952195</v>
+        <v>0.1838976443287824</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08186346015370036</v>
+        <v>0.0869836336245827</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05619818640225595</v>
+        <v>0.05297656774362491</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1360262050095283</v>
+        <v>0.1370048935403748</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04551099680664223</v>
+        <v>0.04775226615662759</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02973220794683479</v>
+        <v>0.02886429833297735</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04499453197841644</v>
+        <v>0.04214301300203896</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07533008054729139</v>
+        <v>0.07282465414897976</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04842842543336834</v>
+        <v>0.05109132824118851</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09654907175897225</v>
+        <v>0.09714657216320796</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.181632877381722</v>
+        <v>0.1796456045739987</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1356946921678714</v>
+        <v>0.1314486529950848</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2466984841046508</v>
+        <v>0.247123859492781</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1131114976844203</v>
+        <v>0.1173175367846519</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08913824200717697</v>
+        <v>0.09032459418423473</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09874270023738077</v>
+        <v>0.09664056707815939</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1343318770005396</v>
+        <v>0.1312687263891635</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09989464618968502</v>
+        <v>0.1020972063065971</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1540279780437357</v>
+        <v>0.1537867202190115</v>
       </c>
     </row>
     <row r="19">
@@ -1191,7 +1191,7 @@
         <v>0.2103973257475447</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.09639868824417848</v>
+        <v>0.09639868824417845</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.0392436449139972</v>
@@ -1200,7 +1200,7 @@
         <v>0.1108986896919043</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.04912547577005429</v>
+        <v>0.04912547577005428</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.09051072073806457</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1059531536892502</v>
+        <v>0.1001611108149495</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1615175724573219</v>
+        <v>0.159972188749095</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0653177281570532</v>
+        <v>0.06207347008070433</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01851444981948539</v>
+        <v>0.02134372957550299</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.07921732127216535</v>
+        <v>0.07763129367367445</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02868059783961346</v>
+        <v>0.02884188585938177</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.06930475945028876</v>
+        <v>0.06745178872956845</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1290754729982131</v>
+        <v>0.1290533517710737</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05308882615942298</v>
+        <v>0.05284391225864722</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1866305219950054</v>
+        <v>0.1869100625087807</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.266895316789047</v>
+        <v>0.2620418636406333</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1379506748931096</v>
+        <v>0.1331763751520651</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.07164513035343344</v>
+        <v>0.06940924422177265</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1560147671837816</v>
+        <v>0.1543744093961901</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07810230545361398</v>
+        <v>0.07917396669727092</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1195854441189077</v>
+        <v>0.1174666063781438</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1916387081394216</v>
+        <v>0.1919454691977538</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09777505221208019</v>
+        <v>0.09495281935463928</v>
       </c>
     </row>
     <row r="22">
@@ -1318,7 +1318,7 @@
         <v>0.135727128853984</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.1358165301416007</v>
+        <v>0.1358165301416008</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1265622270349778</v>
+        <v>0.1248749473749231</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1273022489739253</v>
+        <v>0.1246379176660405</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1397890610723703</v>
+        <v>0.1357682853736082</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05607437827202568</v>
+        <v>0.05637185159174263</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.09667380356934827</v>
+        <v>0.09773770055899822</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08364863088209747</v>
+        <v>0.08666441690213013</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09613103994987074</v>
+        <v>0.09764792731468103</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.118429046401299</v>
+        <v>0.1160746821777518</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1181803314306113</v>
+        <v>0.1174785271181504</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1841913237813049</v>
+        <v>0.1849327446647141</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1863737647728048</v>
+        <v>0.1834816090873118</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2089980156956675</v>
+        <v>0.2029182659717471</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1009521013072521</v>
+        <v>0.09837314135557584</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1441061023293981</v>
+        <v>0.147294646884204</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1257013800297015</v>
+        <v>0.1277570865650278</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1337997757411707</v>
+        <v>0.131762472783622</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.157344337760531</v>
+        <v>0.1541479616916766</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1583368723181475</v>
+        <v>0.158757596140846</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1185226980792006</v>
+        <v>0.1187821554699903</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1082704147120919</v>
+        <v>0.1067641402067279</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1616589642148357</v>
+        <v>0.1629808589728359</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04029545219272953</v>
+        <v>0.04033970954494446</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05127673972664099</v>
+        <v>0.04964431016790886</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.07299436808185437</v>
+        <v>0.07439005555359256</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.08273270036651517</v>
+        <v>0.08282655655197105</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.08479935288621639</v>
+        <v>0.08403169442246085</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1221410653237136</v>
+        <v>0.1246742755091204</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1673095079139038</v>
+        <v>0.1748307378443006</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1593214615565747</v>
+        <v>0.1561297091705277</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2258812846281942</v>
+        <v>0.2298704278499248</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.07316086512176634</v>
+        <v>0.07169972062761673</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.08580530239677424</v>
+        <v>0.08380681307946626</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1115434257763937</v>
+        <v>0.1131512669693835</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1132435387890994</v>
+        <v>0.1137863469105908</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1133984562106207</v>
+        <v>0.1123311662281977</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1615185934255661</v>
+        <v>0.1642071669294857</v>
       </c>
     </row>
     <row r="28">
@@ -1518,7 +1518,7 @@
         <v>0.168267849960355</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.1750706749087821</v>
+        <v>0.175070674908782</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.06540870295799014</v>
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.143122773907669</v>
+        <v>0.1436327736022013</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1551472280141789</v>
+        <v>0.1563117566470478</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1612991789552232</v>
+        <v>0.1616677053338311</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.05705999791554181</v>
+        <v>0.0567060948095738</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.08559315729238569</v>
+        <v>0.08576390864699422</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.0780697787213632</v>
+        <v>0.07735610287546635</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.101777437363375</v>
+        <v>0.1015675748007532</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.122705287393686</v>
+        <v>0.1233567582145259</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1206861551329339</v>
+        <v>0.1212455046395174</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1679836413826834</v>
+        <v>0.1694163032554913</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1809930106485404</v>
+        <v>0.1817197789814982</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1919099324735331</v>
+        <v>0.1923002559465077</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.07399932027727731</v>
+        <v>0.07354233200293919</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1047100396638446</v>
+        <v>0.1054689244298533</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.09565932999839803</v>
+        <v>0.09519556666782157</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1172195284277668</v>
+        <v>0.1179604053339436</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1404715291850194</v>
+        <v>0.1391807542412773</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1380609249266547</v>
+        <v>0.1381302885383195</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>44918</v>
+        <v>42601</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>61442</v>
+        <v>62702</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>52993</v>
+        <v>53159</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>25216</v>
+        <v>24263</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>28642</v>
+        <v>27411</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>26501</v>
+        <v>25543</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>73725</v>
+        <v>73866</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>96708</v>
+        <v>95662</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>83882</v>
+        <v>84462</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>72680</v>
+        <v>71084</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>92648</v>
+        <v>93518</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>89839</v>
+        <v>85706</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>48369</v>
+        <v>47341</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>52974</v>
+        <v>52251</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>45287</v>
+        <v>45119</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>109955</v>
+        <v>111292</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>136438</v>
+        <v>136323</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>124204</v>
+        <v>126072</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>78778</v>
+        <v>79280</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>75002</v>
+        <v>73897</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>65267</v>
+        <v>64264</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>21315</v>
+        <v>20716</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>38839</v>
+        <v>39105</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17669</v>
+        <v>16743</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>105795</v>
+        <v>105761</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>120959</v>
+        <v>122722</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>84828</v>
+        <v>85804</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>117407</v>
+        <v>117432</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>110366</v>
+        <v>108526</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>113171</v>
+        <v>111201</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>43708</v>
+        <v>42933</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>66626</v>
+        <v>65344</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>35922</v>
+        <v>36680</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>153214</v>
+        <v>151084</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>167178</v>
+        <v>166582</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>139436</v>
+        <v>137622</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>32600</v>
+        <v>33118</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>47885</v>
+        <v>48747</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>48123</v>
+        <v>47775</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9758</v>
+        <v>9935</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>27570</v>
+        <v>27798</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>16006</v>
+        <v>15788</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>47514</v>
+        <v>47832</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>83136</v>
+        <v>80283</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>70016</v>
+        <v>67328</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>57481</v>
+        <v>57231</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>75183</v>
+        <v>76400</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>78311</v>
+        <v>77899</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26990</v>
+        <v>27070</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>50853</v>
+        <v>50660</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>34415</v>
+        <v>33980</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>77987</v>
+        <v>76818</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>118682</v>
+        <v>116409</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>104722</v>
+        <v>104789</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>44301</v>
+        <v>45105</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>47676</v>
+        <v>48056</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>44872</v>
+        <v>47336</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>15171</v>
+        <v>15120</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>20628</v>
+        <v>21275</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>41374</v>
+        <v>41026</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>65160</v>
+        <v>65880</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>76610</v>
+        <v>75932</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>94131</v>
+        <v>95375</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>75534</v>
+        <v>75476</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>79069</v>
+        <v>78501</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>83660</v>
+        <v>87226</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>34623</v>
+        <v>35027</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>42727</v>
+        <v>42831</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>73260</v>
+        <v>72277</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>101626</v>
+        <v>101549</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>115057</v>
+        <v>114672</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>145181</v>
+        <v>146218</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>17406</v>
+        <v>18494</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>11870</v>
+        <v>11190</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>27976</v>
+        <v>28177</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9994</v>
+        <v>10486</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6499</v>
+        <v>6309</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>10206</v>
+        <v>9559</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>32558</v>
+        <v>31475</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>20815</v>
+        <v>21959</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>41756</v>
+        <v>42015</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>38618</v>
+        <v>38196</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>28662</v>
+        <v>27765</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>50737</v>
+        <v>50825</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>24838</v>
+        <v>25762</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>19484</v>
+        <v>19744</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>22397</v>
+        <v>21920</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>58059</v>
+        <v>56736</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>42936</v>
+        <v>43882</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>66615</v>
+        <v>66511</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>29029</v>
+        <v>27442</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>42499</v>
+        <v>42092</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>17682</v>
+        <v>16804</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5185</v>
+        <v>5977</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>21635</v>
+        <v>21202</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>7565</v>
+        <v>7607</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>38396</v>
+        <v>37369</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>69215</v>
+        <v>69203</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>28374</v>
+        <v>28243</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>51133</v>
+        <v>51210</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>70226</v>
+        <v>68949</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>37344</v>
+        <v>36052</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>20063</v>
+        <v>19437</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>42610</v>
+        <v>42162</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>20599</v>
+        <v>20882</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>66252</v>
+        <v>65078</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>102764</v>
+        <v>102928</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>52257</v>
+        <v>50748</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>83770</v>
+        <v>82654</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>83581</v>
+        <v>81832</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>100157</v>
+        <v>97276</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>38907</v>
+        <v>39114</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>66830</v>
+        <v>67565</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>64470</v>
+        <v>66795</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>130329</v>
+        <v>132386</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>159625</v>
+        <v>156451</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>175760</v>
+        <v>174716</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>121915</v>
+        <v>122405</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>122365</v>
+        <v>120466</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>149745</v>
+        <v>145389</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>70046</v>
+        <v>68256</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>99620</v>
+        <v>101824</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>96882</v>
+        <v>98466</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>181398</v>
+        <v>178636</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>212077</v>
+        <v>207769</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>235481</v>
+        <v>236107</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>92341</v>
+        <v>92543</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>84298</v>
+        <v>83125</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>129015</v>
+        <v>130070</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>33198</v>
+        <v>33234</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>42363</v>
+        <v>41014</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>60482</v>
+        <v>61638</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>132616</v>
+        <v>132767</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>136082</v>
+        <v>134850</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>198681</v>
+        <v>202802</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>130351</v>
+        <v>136210</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>124045</v>
+        <v>121560</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>180270</v>
+        <v>183453</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>60274</v>
+        <v>59070</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>70890</v>
+        <v>69238</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>92423</v>
+        <v>93755</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>181524</v>
+        <v>182394</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>181976</v>
+        <v>180263</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>262734</v>
+        <v>267108</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>490154</v>
+        <v>491901</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>526624</v>
+        <v>530577</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>569315</v>
+        <v>570616</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>202929</v>
+        <v>201670</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>303389</v>
+        <v>303994</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>291261</v>
+        <v>288599</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>710521</v>
+        <v>709056</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>851439</v>
+        <v>855959</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>876223</v>
+        <v>880284</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>575295</v>
+        <v>580202</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>614354</v>
+        <v>616821</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>677358</v>
+        <v>678736</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>263172</v>
+        <v>261547</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>371149</v>
+        <v>373839</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>356884</v>
+        <v>355154</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>818324</v>
+        <v>823496</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>974717</v>
+        <v>965760</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1002369</v>
+        <v>1002873</v>
       </c>
     </row>
     <row r="40">
